--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H2">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>12.938140093824</v>
+        <v>0.01488033605066667</v>
       </c>
       <c r="R2">
-        <v>116.443260844416</v>
+        <v>0.133923024456</v>
       </c>
       <c r="S2">
-        <v>0.01715618574556916</v>
+        <v>0.0001086949568069915</v>
       </c>
       <c r="T2">
-        <v>0.01715618574556916</v>
+        <v>0.0001086949568069915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H3">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>12.99875238357422</v>
+        <v>1.213027715756889</v>
       </c>
       <c r="R3">
-        <v>116.988771452168</v>
+        <v>10.917249441812</v>
       </c>
       <c r="S3">
-        <v>0.01723655863486222</v>
+        <v>0.008860686661977065</v>
       </c>
       <c r="T3">
-        <v>0.01723655863486222</v>
+        <v>0.008860686661977065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H4">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>0.6241972526802222</v>
+        <v>0.09332096850633333</v>
       </c>
       <c r="R4">
-        <v>5.617775274122</v>
+        <v>0.8398887165569999</v>
       </c>
       <c r="S4">
-        <v>0.0008276957840306357</v>
+        <v>0.0006816726857810491</v>
       </c>
       <c r="T4">
-        <v>0.0008276957840306357</v>
+        <v>0.0006816726857810492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.994191</v>
       </c>
       <c r="I5">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J5">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>101.643174997056</v>
+        <v>1.252708601144</v>
       </c>
       <c r="R5">
-        <v>914.788574973504</v>
+        <v>11.274377410296</v>
       </c>
       <c r="S5">
-        <v>0.1347805153888609</v>
+        <v>0.009150539801619161</v>
       </c>
       <c r="T5">
-        <v>0.1347805153888609</v>
+        <v>0.009150539801619163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.994191</v>
       </c>
       <c r="I6">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J6">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>102.1193505160547</v>
@@ -818,10 +818,10 @@
         <v>919.074154644492</v>
       </c>
       <c r="S6">
-        <v>0.1354119319288112</v>
+        <v>0.7459413789921291</v>
       </c>
       <c r="T6">
-        <v>0.1354119319288111</v>
+        <v>0.7459413789921293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.994191</v>
       </c>
       <c r="I7">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J7">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>4.903748925793667</v>
+        <v>7.856272836643</v>
       </c>
       <c r="R7">
-        <v>44.133740332143</v>
+        <v>70.70645552978699</v>
       </c>
       <c r="S7">
-        <v>0.006502451419637242</v>
+        <v>0.05738695912076484</v>
       </c>
       <c r="T7">
-        <v>0.006502451419637241</v>
+        <v>0.05738695912076486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H8">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I8">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J8">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>252.766169307648</v>
+        <v>0.2742463464</v>
       </c>
       <c r="R8">
-        <v>2274.895523768832</v>
+        <v>2.4682171176</v>
       </c>
       <c r="S8">
-        <v>0.3351720818750459</v>
+        <v>0.002003260858822319</v>
       </c>
       <c r="T8">
-        <v>0.3351720818750458</v>
+        <v>0.00200326085882232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H9">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I9">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J9">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>253.9503222215929</v>
+        <v>22.3562437028</v>
       </c>
       <c r="R9">
-        <v>2285.552899994336</v>
+        <v>201.2061933252</v>
       </c>
       <c r="S9">
-        <v>0.3367422880403426</v>
+        <v>0.1633034990183271</v>
       </c>
       <c r="T9">
-        <v>0.3367422880403426</v>
+        <v>0.1633034990183271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H10">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I10">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J10">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>12.19463905230489</v>
+        <v>1.7199164433</v>
       </c>
       <c r="R10">
-        <v>109.751751470744</v>
+        <v>15.4792479897</v>
       </c>
       <c r="S10">
-        <v>0.01617029118284025</v>
+        <v>0.01256330790377227</v>
       </c>
       <c r="T10">
-        <v>0.01617029118284025</v>
+        <v>0.01256330790377227</v>
       </c>
     </row>
   </sheetData>
